--- a/performance_results_ratio_subroutine.xlsx
+++ b/performance_results_ratio_subroutine.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4195085653016016</v>
+        <v>0.4102936898114851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1682050978469351</v>
+        <v>0.1721073816905388</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4123798620688415</v>
+        <v>0.4082767460067397</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1661000476002163</v>
+        <v>0.1707358413095561</v>
       </c>
     </row>
   </sheetData>

--- a/performance_results_ratio_subroutine.xlsx
+++ b/performance_results_ratio_subroutine.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4102936898114851</v>
+        <v>0.4106585173100818</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1721073816905388</v>
+        <v>0.1722250018319258</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4082767460067397</v>
+        <v>0.4327230008198854</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1707358413095561</v>
+        <v>0.1547915539685618</v>
       </c>
     </row>
   </sheetData>
